--- a/Documents/iCheap_Document.xlsx
+++ b/Documents/iCheap_Document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -861,6 +861,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,9 +876,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1208,9 +1208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,10 +1225,10 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1251,7 +1251,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1265,7 +1265,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1279,10 +1279,10 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1293,7 +1293,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1307,7 +1307,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1321,7 +1321,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1335,7 +1335,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1637,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="6"/>
@@ -1647,7 +1647,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D1" s="6"/>
@@ -2152,7 +2152,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2606,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D1" s="6"/>
@@ -2616,7 +2616,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3053,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="6"/>
@@ -3082,7 +3082,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="6"/>
@@ -3926,7 +3926,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4451,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D1" s="6"/>
@@ -4461,7 +4461,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4760,7 +4760,7 @@
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4774,7 +4774,7 @@
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -5040,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>179</v>
       </c>
       <c r="D1" s="6"/>
@@ -5050,7 +5050,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -5336,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D1" s="6"/>
@@ -5346,7 +5346,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="22"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
